--- a/addons/base_import/tests/test.xlsx
+++ b/addons/base_import/tests/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="198" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,57 +13,71 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Some Value</t>
-  </si>
-  <si>
-    <t>Counter</t>
-  </si>
-  <si>
-    <t>foo</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>qux</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some DateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ hh:mm"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,7 +89,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -84,61 +98,77 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.41"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -148,10 +178,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.1" outlineLevel="0" r="2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -159,10 +195,16 @@
       <c r="C2" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.1" outlineLevel="0" r="3">
+      <c r="D2" s="2" t="n">
+        <v>44957.6152803241</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>3</v>
@@ -170,22 +212,34 @@
       <c r="C3" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.1" outlineLevel="0" r="4">
+      <c r="D3" s="3" t="n">
+        <v>44957</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44957.6152777778</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>44959</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -194,23 +248,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -219,23 +271,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
